--- a/Output/TestResults.xlsx
+++ b/Output/TestResults.xlsx
@@ -44,7 +44,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>03-08-19 15:49:16</t>
+    <t>03-08-19 16:01:00</t>
   </si>
   <si>
     <t>0</t>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -71,6 +71,60 @@
       <sz val="11.0"/>
       <b val="true"/>
       <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -121,10 +175,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -150,39 +237,39 @@
       <c r="A1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="12">
         <v>12</v>
       </c>
     </row>

--- a/Output/TestResults.xlsx
+++ b/Output/TestResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t/>
   </si>
@@ -44,10 +44,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>03-08-19 16:01:00</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>03-08-19 16:33:39</t>
   </si>
   <si>
     <t>Dummy comment. Need to set Pre requisite or return data</t>
@@ -58,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -102,32 +99,8 @@
       <b val="true"/>
       <i val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +115,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -175,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="true" horizontal="center"/>
@@ -204,6 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true" horizontal="left"/>
     </xf>
@@ -260,17 +244,17 @@
       <c r="B2" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="11">
+      <c r="E2" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s" s="13">
         <v>11</v>
-      </c>
-      <c r="F2" t="s" s="12">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Output/TestResults.xlsx
+++ b/Output/TestResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t/>
   </si>
@@ -44,10 +44,28 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>03-08-19 16:33:39</t>
+    <t>06-08-19 15:48:16</t>
   </si>
   <si>
     <t>Dummy comment. Need to set Pre requisite or return data</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>06-08-19 15:48:26</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>06-08-19 15:48:34</t>
   </si>
 </sst>
 </file>
@@ -55,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -98,6 +116,27 @@
       <sz val="11.0"/>
       <b val="true"/>
       <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="4"/>
+      <i val="true"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="4"/>
+      <i val="true"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="4"/>
+      <i val="true"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="6">
@@ -158,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="true" horizontal="center"/>
@@ -184,6 +223,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true" horizontal="left"/>
     </xf>
@@ -202,8 +282,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -241,23 +321,68 @@
       <c r="A2" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="11">
+      <c r="D2" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="E2" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="F2" t="s" s="13">
+      <c r="F2" t="s" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="17">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="19">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="27">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="28">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="29">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s" s="30">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Output/TestResults.xlsx
+++ b/Output/TestResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t/>
   </si>
@@ -44,28 +44,10 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>06-08-19 15:48:16</t>
+    <t>09-08-19 15:34:03</t>
   </si>
   <si>
     <t>Dummy comment. Need to set Pre requisite or return data</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>06-08-19 15:48:26</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>06-08-19 15:48:34</t>
   </si>
 </sst>
 </file>
@@ -73,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -116,20 +98,6 @@
       <sz val="11.0"/>
       <b val="true"/>
       <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="4"/>
-      <i val="true"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="4"/>
-      <i val="true"/>
-      <u val="single"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -197,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="true" horizontal="center"/>
@@ -224,46 +192,6 @@
       <alignment wrapText="true" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment wrapText="true" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true" horizontal="left"/>
     </xf>
@@ -283,7 +211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -337,51 +265,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="17">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="19">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="20">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="21">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s" s="22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s" s="25">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s" s="27">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="28">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s" s="29">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s" s="30">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
